--- a/Jogadores_Grupo_C.xlsx
+++ b/Jogadores_Grupo_C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD79"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,10 +576,20 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Accurate passes percentage</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Successful dribbles percentage</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Free kick goal</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Penalty goals</t>
         </is>
@@ -683,9 +693,15 @@
         <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>87.573964497041</v>
       </c>
       <c r="AD2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -787,9 +803,15 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>91.139240506329</v>
       </c>
       <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -891,9 +913,15 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>80.357142857143</v>
       </c>
       <c r="AD4" t="n">
+        <v>46.666666666667</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -995,9 +1023,15 @@
         <v>2</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>95.161290322581</v>
       </c>
       <c r="AD5" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1099,9 +1133,15 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>94.705882352941</v>
       </c>
       <c r="AD6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1203,9 +1243,15 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>90.666666666667</v>
       </c>
       <c r="AD7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1307,9 +1353,15 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>90.15544041450801</v>
       </c>
       <c r="AD8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1411,9 +1463,15 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>95.959595959596</v>
       </c>
       <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1515,9 +1573,15 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1619,9 +1683,15 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>94.871794871795</v>
       </c>
       <c r="AD11" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1723,9 +1793,15 @@
         <v>1</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>92.948717948718</v>
       </c>
       <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1827,9 +1903,15 @@
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>85.227272727273</v>
       </c>
       <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1931,9 +2013,15 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>66.666666666667</v>
       </c>
       <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2035,9 +2123,15 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>96.610169491525</v>
       </c>
       <c r="AD15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2139,9 +2233,15 @@
         <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>93.87755102040801</v>
       </c>
       <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2243,9 +2343,15 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>93.90243902439001</v>
       </c>
       <c r="AD17" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2347,9 +2453,15 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>88.888888888889</v>
       </c>
       <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2451,243 +2563,261 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>78.571428571429</v>
       </c>
       <c r="AD19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bruma</t>
+          <t>Natan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I20" t="n">
-        <v>7.5</v>
+        <v>7.55</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.319</v>
+        <v>0.1838</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3980783</v>
+        <v>0.02179504</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>131</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="n">
         <v>3</v>
       </c>
-      <c r="O20" t="n">
-        <v>102</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>86</v>
-      </c>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6</v>
-      </c>
-      <c r="X20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>88.513513513514</v>
       </c>
       <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>André Castro</t>
+          <t>Khvicha Kvaratskhelia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>77</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I21" t="n">
-        <v>7.3</v>
+        <v>7.4666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0264</v>
+        <v>0.1414</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00061872</v>
+        <v>0.9426600000000001</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>91</v>
+      </c>
+      <c r="U21" t="n">
         <v>10</v>
       </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>84.259259259259</v>
       </c>
       <c r="AD21" t="n">
+        <v>57.894736842105</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ricardo Horta</t>
+          <t>Leo Østigård</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2696,38 +2826,38 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I22" t="n">
-        <v>7.3</v>
+        <v>7.45</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8708</v>
+        <v>0.3751</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6645836000000001</v>
+        <v>0.01507844</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="P22" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2736,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W22" t="n">
         <v>1</v>
@@ -2751,47 +2881,53 @@
         <v>4</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AA22" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>83.529411764706</v>
       </c>
       <c r="AD22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mutassim Al Musrati</t>
+          <t>Giovanni Di Lorenzo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2800,234 +2936,246 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I23" t="n">
-        <v>7.3</v>
+        <v>7.4333333333333</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2774</v>
+        <v>0.1889</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2842068</v>
+        <v>0.4261977</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>7</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4</v>
+      </c>
+      <c r="X23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y23" t="n">
         <v>2</v>
-      </c>
-      <c r="V23" t="n">
-        <v>27</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>4</v>
       </c>
       <c r="Z23" t="n">
         <v>5</v>
       </c>
       <c r="AA23" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>83.928571428571</v>
       </c>
       <c r="AD23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Simon Banza</t>
+          <t>Piotr Zieliński</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>DR Congo</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I24" t="n">
-        <v>7.2333333333333</v>
+        <v>7.2</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4383</v>
+        <v>1.4407</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08598753000000001</v>
+        <v>0.3061961</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>126</v>
+      </c>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
         <v>6</v>
       </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
-      <c r="T24" t="n">
-        <v>26</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1</v>
-      </c>
       <c r="W24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="n">
         <v>2</v>
       </c>
       <c r="AA24" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>86.301369863014</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>16.666666666667</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Matheus</t>
+          <t>Matteo Politano</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" t="n">
-        <v>7.1666666666667</v>
+        <v>7.0333333333333</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.1096</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00338449</v>
+        <v>0.4185363</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3036,111 +3184,117 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>70.731707317073</v>
       </c>
       <c r="AD25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rodrigo Zalazar</t>
+          <t>Amir Rrahmani</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I26" t="n">
-        <v>7.0666666666667</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0339</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.785645</v>
+        <v>0.00654777</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -3149,51 +3303,57 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="U26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AA26" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
         <v>1</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>86.206896551724</v>
       </c>
       <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sikou Niakaté</t>
+          <t>Mário Rui</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3203,11 +3363,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3216,38 +3376,38 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I27" t="n">
-        <v>7.0333333333333</v>
+        <v>6.9</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.724</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03570499</v>
+        <v>0.05414996</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3256,62 +3416,68 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z27" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>93.10344827586199</v>
       </c>
       <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Álvaro Djaló</t>
+          <t>Jens Cajuste</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3320,88 +3486,94 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>24</v>
       </c>
       <c r="I28" t="n">
-        <v>6.9333333333333</v>
+        <v>6.9</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2278</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3220042</v>
+        <v>0.00796496</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>16</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>37</v>
-      </c>
-      <c r="U28" t="n">
-        <v>6</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1</v>
-      </c>
-      <c r="W28" t="n">
-        <v>5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>4</v>
-      </c>
       <c r="Y28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>88.888888888889</v>
       </c>
       <c r="AD28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>José Fonte</t>
+          <t>Mathías Olivera</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3411,39 +3583,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I29" t="n">
-        <v>6.9</v>
+        <v>6.8333333333333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0615</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.00781072</v>
+        <v>0.08207037</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3452,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -3464,48 +3636,54 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z29" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AB29" t="n">
         <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>86.13861386138601</v>
       </c>
       <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cristián Borja</t>
+          <t>Juan Jesus</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3515,11 +3693,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3528,14 +3706,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I30" t="n">
-        <v>6.8333333333333</v>
+        <v>6.8</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3547,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3393451</v>
+        <v>0.00265568</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3568,48 +3746,54 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA30" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AB30" t="n">
         <v>1</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>81.818181818182</v>
       </c>
       <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Vítor Carvalho</t>
+          <t>Stanislav Lobotka</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3619,24 +3803,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I31" t="n">
         <v>6.8</v>
@@ -3645,13 +3829,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1699</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03212414</v>
+        <v>0.2416374</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3660,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3672,75 +3856,81 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z31" t="n">
         <v>2</v>
       </c>
       <c r="AA31" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>91.666666666667</v>
       </c>
       <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pizzi</t>
+          <t>Alex Meret</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I32" t="n">
         <v>6.8</v>
@@ -3749,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0718</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0116407</v>
+        <v>0.00091571</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3764,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3776,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3794,44 +3984,50 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA32" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>85.135135135135</v>
       </c>
       <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Victor Gómez</t>
+          <t>Victor Osimhen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3840,26 +4036,26 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I33" t="n">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.1566</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.330907</v>
+        <v>0.1504045</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3868,74 +4064,80 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="U33" t="n">
         <v>2</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>2</v>
       </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA33" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AD33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>João Moutinho</t>
+          <t>Giacomo Raspadori</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -3944,38 +4146,38 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I34" t="n">
-        <v>6.75</v>
+        <v>6.7333333333333</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0.09760000000000001</v>
+        <v>0.1856</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0278463</v>
+        <v>0.23737486</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3984,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -4005,27 +4207,33 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>81.25</v>
       </c>
       <c r="AD34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Abel Ruíz</t>
+          <t>Giovanni Simeone</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4035,11 +4243,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -4048,11 +4256,11 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I35" t="n">
         <v>6.7</v>
@@ -4061,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4943</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.04745762</v>
+        <v>0.00093443</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -4076,74 +4284,80 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>3</v>
       </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>20</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1</v>
-      </c>
       <c r="Y35" t="n">
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>36.363636363636</v>
       </c>
       <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Josafat Mendes</t>
+          <t>Eljif Elmas</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -4152,26 +4366,26 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I36" t="n">
-        <v>6.6</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0853</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3829073</v>
+        <v>0.0963589</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -4180,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -4192,62 +4406,68 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>2</v>
       </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
       <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>2</v>
       </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
       <c r="Z36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>88.461538461538</v>
       </c>
       <c r="AD36" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Serdar Saatçı</t>
+          <t>Jesper Lindstrøm</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -4256,26 +4476,26 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I37" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0321</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01432803</v>
+        <v>6.259e-05</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -4284,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -4296,62 +4516,68 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Diogo Fonseca</t>
+          <t>Frank Anguissa</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -4360,26 +4586,26 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I38" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3519</v>
+        <v>0.1075</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00512505</v>
+        <v>0.0870218</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -4388,10 +4614,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>1</v>
@@ -4400,117 +4626,123 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA38" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>89.873417721519</v>
       </c>
       <c r="AD38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Adrián Marín</t>
+          <t>Sheraldo Becker</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I39" t="n">
-        <v>6.35</v>
+        <v>7.2</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1.0142</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00350315</v>
+        <v>0.390855</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -4525,27 +4757,33 @@
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>78.571428571429</v>
       </c>
       <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Natan</t>
+          <t>Robin Knoche</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4555,39 +4793,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I40" t="n">
-        <v>7.55</v>
+        <v>7.2</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1838</v>
+        <v>0.0336</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.02179504</v>
+        <v>0.0161361</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -4608,166 +4846,178 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
         <v>3</v>
       </c>
-      <c r="Z40" t="n">
-        <v>10</v>
-      </c>
       <c r="AA40" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AB40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>82.45614035087701</v>
       </c>
       <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Khvicha Kvaratskhelia</t>
+          <t>Christopher Trimmel</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I41" t="n">
-        <v>7.4666666666667</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1414</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9426600000000001</v>
+        <v>0.126802</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>28</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
         <v>4</v>
       </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>91</v>
-      </c>
-      <c r="U41" t="n">
-        <v>10</v>
-      </c>
-      <c r="V41" t="n">
-        <v>11</v>
-      </c>
       <c r="W41" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Leo Østigård</t>
+          <t>Kevin Behrens</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -4776,102 +5026,108 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I42" t="n">
-        <v>7.45</v>
+        <v>6.9333333333333</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.3751</v>
+        <v>0.5038</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01507844</v>
+        <v>0.08609749</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
       </c>
       <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>19</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
         <v>2</v>
       </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>71</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2</v>
-      </c>
-      <c r="V42" t="n">
-        <v>6</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z42" t="n">
         <v>4</v>
       </c>
-      <c r="Y42" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>12</v>
-      </c>
       <c r="AA42" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB42" t="n">
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>61.290322580645</v>
       </c>
       <c r="AD42" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Giovanni Di Lorenzo</t>
+          <t>Alex Král</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4880,192 +5136,204 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I43" t="n">
-        <v>7.4333333333333</v>
+        <v>6.9</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1889</v>
+        <v>0.0117</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4261977</v>
+        <v>0.1215764</v>
       </c>
       <c r="N43" t="n">
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>66</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
         <v>3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
-      <c r="T43" t="n">
-        <v>141</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1</v>
-      </c>
-      <c r="V43" t="n">
-        <v>7</v>
-      </c>
-      <c r="W43" t="n">
-        <v>4</v>
-      </c>
-      <c r="X43" t="n">
-        <v>10</v>
       </c>
       <c r="Y43" t="n">
         <v>2</v>
       </c>
       <c r="Z43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AB43" t="n">
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>83.544303797468</v>
       </c>
       <c r="AD43" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Piotr Zieliński</t>
+          <t>Frederik Rønnow</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I44" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.4407</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3061961</v>
+        <v>0.0036804</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA44" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="n">
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>58.695652173913</v>
       </c>
       <c r="AD44" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Matteo Politano</t>
+          <t>David Datro Fofana</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5075,39 +5343,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I45" t="n">
-        <v>7.0333333333333</v>
+        <v>6.85</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1096</v>
+        <v>0.0891</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.4185363</v>
+        <v>0.0132695</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -5116,25 +5384,25 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>1</v>
@@ -5146,30 +5414,36 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="AB45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AD45" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Amir Rrahmani</t>
+          <t>Robin Gosens</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5179,39 +5453,39 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>29</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.0304</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.00654777</v>
+        <v>0.2770343</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -5220,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -5229,81 +5503,87 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z46" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AA46" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AB46" t="n">
         <v>1</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>71.428571428571</v>
       </c>
       <c r="AD46" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mário Rui</t>
+          <t>Lucas Tousart</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I47" t="n">
-        <v>6.9</v>
+        <v>6.7666666666667</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -5312,13 +5592,13 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0.05414996</v>
+        <v>0.01593538</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -5333,10 +5613,10 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="U47" t="n">
         <v>1</v>
@@ -5348,46 +5628,52 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z47" t="n">
         <v>1</v>
       </c>
       <c r="AA47" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>67.39130434782599</v>
       </c>
       <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Jens Cajuste</t>
+          <t>Diogo Leite</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -5395,31 +5681,31 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>24</v>
       </c>
       <c r="I48" t="n">
-        <v>6.9</v>
+        <v>6.7333333333333</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.00796496</v>
+        <v>0.04956239</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -5428,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -5440,48 +5726,54 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA48" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>77.037037037037</v>
       </c>
       <c r="AD48" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mathías Olivera</t>
+          <t>Josip Juranović</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5491,39 +5783,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I49" t="n">
-        <v>6.8333333333333</v>
+        <v>6.7</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.0953</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.08207037</v>
+        <v>0.2260883</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -5532,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -5544,48 +5836,54 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="U49" t="n">
         <v>3</v>
       </c>
       <c r="V49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z49" t="n">
         <v>3</v>
       </c>
-      <c r="Z49" t="n">
-        <v>1</v>
-      </c>
       <c r="AA49" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AB49" t="n">
         <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Juan Jesus</t>
+          <t>Leonardo Bonucci</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5595,27 +5893,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I50" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -5627,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.00265568</v>
+        <v>0.01360706</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -5648,13 +5946,13 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -5663,33 +5961,39 @@
         <v>1</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB50" t="n">
         <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>75.862068965517</v>
       </c>
       <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Stanislav Lobotka</t>
+          <t>Aissa Laïdouni</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5699,27 +6003,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I51" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -5731,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2416374</v>
+        <v>0.27691203</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -5749,65 +6053,71 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
         <v>2</v>
       </c>
       <c r="AA51" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB51" t="n">
         <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>65.384615384615</v>
       </c>
       <c r="AD51" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Alex Meret</t>
+          <t>Kevin Volland</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -5816,26 +6126,26 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I52" t="n">
-        <v>6.8</v>
+        <v>6.6333333333333</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>0.3497</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.00091571</v>
+        <v>0.30309829</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5844,74 +6154,80 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y52" t="n">
         <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB52" t="n">
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AD52" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Victor Osimhen</t>
+          <t>Rani Khedira</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -5920,26 +6236,26 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I53" t="n">
-        <v>6.75</v>
+        <v>6.6</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1.1566</v>
+        <v>0.0495</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.1504045</v>
+        <v>0.0510303</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -5948,114 +6264,120 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA53" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AB53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>62.068965517241</v>
       </c>
       <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Giacomo Raspadori</t>
+          <t>Danilho Doekhi</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I54" t="n">
-        <v>6.7333333333333</v>
+        <v>6.5666666666667</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.1856</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.23737486</v>
+        <v>0.06158409</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -6064,62 +6386,68 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA54" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AB54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>78.16091954023</v>
       </c>
       <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Giovanni Simeone</t>
+          <t>Paul Jaeckel</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -6128,14 +6456,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I55" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -6147,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.00093443</v>
+        <v>0.00017157</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -6168,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -6180,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
         <v>0</v>
@@ -6189,27 +6517,33 @@
         <v>1</v>
       </c>
       <c r="AA55" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB55" t="n">
         <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Eljif Elmas</t>
+          <t>Janik Haberer</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6219,11 +6553,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -6232,26 +6566,26 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I56" t="n">
-        <v>6.6666666666667</v>
+        <v>6.45</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0853</v>
+        <v>0.1111</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0963589</v>
+        <v>0.03051949</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -6260,74 +6594,80 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>31</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1</v>
+      </c>
+      <c r="X56" t="n">
         <v>2</v>
       </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>46</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>2</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0</v>
-      </c>
       <c r="Y56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>75.609756097561</v>
       </c>
       <c r="AD56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jesper Lindstrøm</t>
+          <t>Brenden Aaronson</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -6336,26 +6676,26 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="H57" t="n">
         <v>23</v>
       </c>
       <c r="I57" t="n">
-        <v>6.6</v>
+        <v>6.3666666666667</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>0.3641</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>6.259e-05</v>
+        <v>0.00731941</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -6364,60 +6704,66 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
+        <v>14</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
         <v>2</v>
       </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0</v>
-      </c>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB57" t="n">
         <v>0</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>77.777777777778</v>
       </c>
       <c r="AD57" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Frank Anguissa</t>
+          <t>Jérôme Roussillon</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6427,24 +6773,24 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I58" t="n">
         <v>6.3</v>
@@ -6453,13 +6799,13 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1075</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.0870218</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -6468,55 +6814,61 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA58" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58" t="n">
         <v>0</v>
       </c>
       <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sheraldo Becker</t>
+          <t>Aljoscha Kemlein</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6526,16 +6878,16 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6544,53 +6896,53 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I59" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1.0142</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.390855</v>
+        <v>0.00020508</v>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -6605,41 +6957,47 @@
         <v>1</v>
       </c>
       <c r="AA59" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB59" t="n">
         <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Robin Knoche</t>
+          <t>Bruma</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6648,38 +7006,38 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I60" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0336</v>
+        <v>0.319</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0161361</v>
+        <v>0.3980783</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -6688,48 +7046,54 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y60" t="n">
         <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA60" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB60" t="n">
         <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>87.755102040816</v>
       </c>
       <c r="AD60" t="n">
+        <v>46.153846153846</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Christopher Trimmel</t>
+          <t>André Castro</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6739,11 +7103,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>88</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6752,102 +7116,108 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I61" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0264</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.00061872</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>10</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
         <v>7</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.126802</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" t="n">
-        <v>28</v>
-      </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AB61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kevin Behrens</t>
+          <t>Ricardo Horta</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6856,39 +7226,39 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I62" t="n">
-        <v>6.9333333333333</v>
+        <v>7.3</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5038</v>
+        <v>0.8708</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0.08609749</v>
+        <v>0.6645836000000001</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
       <c r="P62" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q62" t="n">
         <v>4</v>
       </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
       <c r="R62" t="n">
         <v>0</v>
       </c>
@@ -6896,48 +7266,54 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W62" t="n">
         <v>1</v>
       </c>
       <c r="X62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y62" t="n">
         <v>1</v>
       </c>
       <c r="Z62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA62" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="AD62" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Alex Král</t>
+          <t>Mutassim Al Musrati</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6947,11 +7323,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6960,102 +7336,108 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I63" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0117</v>
+        <v>0.2774</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1215764</v>
+        <v>0.2842068</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
+        <v>27</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z63" t="n">
         <v>5</v>
       </c>
-      <c r="W63" t="n">
-        <v>1</v>
-      </c>
-      <c r="X63" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>1</v>
-      </c>
       <c r="AA63" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AB63" t="n">
         <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>88.461538461538</v>
       </c>
       <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frederik Rønnow</t>
+          <t>Simon Banza</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -7064,102 +7446,108 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>DR Congo</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I64" t="n">
-        <v>6.9</v>
+        <v>7.2333333333333</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>0.4383</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0036804</v>
+        <v>0.08598753000000001</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64" t="n">
         <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA64" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AD64" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>David Datro Fofana</t>
+          <t>Matheus</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -7168,26 +7556,26 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I65" t="n">
-        <v>6.85</v>
+        <v>7.1666666666667</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0891</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0132695</v>
+        <v>0.00338449</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -7196,10 +7584,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -7208,99 +7596,105 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
         <v>2</v>
       </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1</v>
-      </c>
-      <c r="X65" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>0</v>
-      </c>
       <c r="AA65" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AB65" t="n">
         <v>0</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>75.531914893617</v>
       </c>
       <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Robin Gosens</t>
+          <t>Rodrigo Zalazar</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I66" t="n">
-        <v>6.8</v>
+        <v>7.0666666666667</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0304</v>
+        <v>0.0339</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2770343</v>
+        <v>0.785645</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -7312,206 +7706,218 @@
         <v>1</v>
       </c>
       <c r="T66" t="n">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="U66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V66" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA66" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB66" t="n">
         <v>1</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>88.61788617886199</v>
       </c>
       <c r="AD66" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Lucas Tousart</t>
+          <t>Sikou Niakaté</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I67" t="n">
-        <v>6.7666666666667</v>
+        <v>7.0333333333333</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>0.724</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.01593538</v>
+        <v>0.03570499</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W67" t="n">
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y67" t="n">
         <v>3</v>
       </c>
       <c r="Z67" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AA67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>87.730061349693</v>
       </c>
       <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Diogo Leite</t>
+          <t>Álvaro Djaló</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>24</v>
       </c>
       <c r="I68" t="n">
-        <v>6.7333333333333</v>
+        <v>6.9333333333333</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0196</v>
+        <v>0.2278</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04956239</v>
+        <v>0.3220042</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -7520,48 +7926,54 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V68" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="W68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z68" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA68" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AB68" t="n">
         <v>1</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AD68" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Josip Juranović</t>
+          <t>José Fonte</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7571,11 +7983,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -7584,26 +7996,26 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I69" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0953</v>
+        <v>0.0615</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0.2260883</v>
+        <v>0.00781072</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -7624,48 +8036,54 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="U69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AA69" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="AB69" t="n">
         <v>1</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AD69" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Leonardo Bonucci</t>
+          <t>Cristián Borja</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7675,27 +8093,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I70" t="n">
-        <v>6.7</v>
+        <v>6.8333333333333</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -7707,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01360706</v>
+        <v>0.3393451</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -7728,48 +8146,54 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V70" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA70" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AB70" t="n">
         <v>1</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>88.095238095238</v>
       </c>
       <c r="AD70" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aissa Laïdouni</t>
+          <t>Vítor Carvalho</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7779,11 +8203,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -7792,26 +8216,26 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>26</v>
       </c>
       <c r="I71" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>0.1699</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.27691203</v>
+        <v>0.03212414</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -7820,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -7829,22 +8253,22 @@
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="U71" t="n">
         <v>2</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
         <v>2</v>
-      </c>
-      <c r="X71" t="n">
-        <v>1</v>
       </c>
       <c r="Y71" t="n">
         <v>0</v>
@@ -7853,37 +8277,43 @@
         <v>2</v>
       </c>
       <c r="AA71" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AB71" t="n">
         <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>93.333333333333</v>
       </c>
       <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kevin Volland</t>
+          <t>Pizzi</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -7891,31 +8321,31 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I72" t="n">
-        <v>6.6333333333333</v>
+        <v>6.8</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.3497</v>
+        <v>0.0718</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.30309829</v>
+        <v>0.0116407</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -7927,71 +8357,77 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
         <v>2</v>
       </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1</v>
-      </c>
-      <c r="X72" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>9</v>
-      </c>
       <c r="AB72" t="n">
         <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Rani Khedira</t>
+          <t>Victor Gómez</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -8000,26 +8436,26 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I73" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0495</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0510303</v>
+        <v>0.330907</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -8028,102 +8464,108 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>44</v>
+      </c>
+      <c r="U73" t="n">
         <v>2</v>
       </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>18</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0</v>
-      </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y73" t="n">
         <v>1</v>
       </c>
       <c r="Z73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA73" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AB73" t="n">
         <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>77.19298245614</v>
       </c>
       <c r="AD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Danilho Doekhi</t>
+          <t>João Moutinho</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I74" t="n">
-        <v>6.5666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>0.09760000000000001</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0.06158409</v>
+        <v>0.0278463</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -8132,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -8144,62 +8586,68 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X74" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z74" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA74" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="AB74" t="n">
         <v>0</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>96.428571428571</v>
       </c>
       <c r="AD74" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Paul Jaeckel</t>
+          <t>Abel Ruíz</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -8208,26 +8656,26 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I75" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>0.4943</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.00017157</v>
+        <v>0.04745762</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -8236,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -8248,62 +8696,68 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" t="n">
         <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB75" t="n">
         <v>0</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>86.95652173913</v>
       </c>
       <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Janik Haberer</t>
+          <t>Josafat Mendes</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -8312,26 +8766,26 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I76" t="n">
-        <v>6.45</v>
+        <v>6.6</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.1111</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.03051949</v>
+        <v>0.3829073</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -8340,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -8352,62 +8806,68 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="U76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X76" t="n">
         <v>2</v>
       </c>
       <c r="Y76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA76" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>85.18518518518501</v>
       </c>
       <c r="AD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Brenden Aaronson</t>
+          <t>Serdar Saatçı</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -8416,26 +8876,26 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I77" t="n">
-        <v>6.3666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3641</v>
+        <v>0.0321</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00731941</v>
+        <v>0.01432803</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -8444,102 +8904,108 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA77" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AB77" t="n">
         <v>0</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>92.561983471074</v>
       </c>
       <c r="AD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Jérôme Roussillon</t>
+          <t>Diogo Fonseca</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I78" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>0.3519</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>0.00512505</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -8548,25 +9014,25 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
@@ -8578,56 +9044,66 @@
         <v>0</v>
       </c>
       <c r="Z78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB78" t="n">
         <v>0</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>56.25</v>
       </c>
       <c r="AD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Aljoscha Kemlein</t>
+          <t>Adrián Marín</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>185</v>
-      </c>
-      <c r="F79" t="inlineStr"/>
+        <v>181</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I79" t="n">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -8639,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.00020508</v>
+        <v>0.00350315</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -8660,13 +9136,13 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W79" t="n">
         <v>0</v>
@@ -8681,15 +9157,21 @@
         <v>1</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB79" t="n">
         <v>0</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogadores_Grupo_C.xlsx
+++ b/Jogadores_Grupo_C.xlsx
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9426600000000001</v>
+        <v>0.942661</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -2851,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4185363</v>
+        <v>0.4185362</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I29" t="n">
         <v>6.8333333333333</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.2416374</v>
+        <v>0.2416372</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0963589</v>
+        <v>0.09635879999999999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0036804</v>
+        <v>0.00368044</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0510303</v>
+        <v>0.0510306</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.06158409</v>
+        <v>0.06158419</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.03051949</v>
+        <v>0.03051959</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
